--- a/gi_template.xlsx
+++ b/gi_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIrst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIrst\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38CD5E0-9CEB-4345-99BB-E9C53F862AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707ACB3A-63ED-4D85-8B4D-0BEC830D9332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="564" xr2:uid="{88F9F152-BEE3-4E7D-BF6D-CFC33E6ACCDE}"/>
   </bookViews>
@@ -2013,6 +2013,591 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2030,591 +2615,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4122,8 +4122,8 @@
   </sheetPr>
   <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4176,89 +4176,89 @@
     </row>
     <row r="2" spans="1:28" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="294"/>
-      <c r="N2" s="294"/>
-      <c r="O2" s="294"/>
-      <c r="P2" s="294"/>
-      <c r="Q2" s="294"/>
-      <c r="R2" s="295"/>
-      <c r="U2" s="296" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="145"/>
+      <c r="U2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="297"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="297"/>
-      <c r="AA2" s="297"/>
-      <c r="AB2" s="298"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="148"/>
     </row>
     <row r="3" spans="1:28" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="299"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="301"/>
-      <c r="R3" s="302"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="304"/>
-      <c r="W3" s="304"/>
-      <c r="X3" s="304"/>
-      <c r="Y3" s="304"/>
-      <c r="Z3" s="304"/>
-      <c r="AA3" s="304"/>
-      <c r="AB3" s="305"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
+      <c r="U3" s="153"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="155"/>
     </row>
     <row r="4" spans="1:28" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="307"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="308"/>
-      <c r="G4" s="309"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="159"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="310" t="s">
+      <c r="I4" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="313" t="s">
+      <c r="J4" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="314"/>
-      <c r="L4" s="314"/>
-      <c r="M4" s="314"/>
-      <c r="N4" s="314"/>
-      <c r="O4" s="314"/>
-      <c r="P4" s="314"/>
-      <c r="Q4" s="314"/>
-      <c r="R4" s="315"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="165"/>
       <c r="U4" s="108" t="s">
         <v>5</v>
       </c>
@@ -4288,23 +4288,23 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="318"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="311"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="240"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="170"/>
       <c r="L5" s="133" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="241" t="s">
+      <c r="N5" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="242"/>
+      <c r="O5" s="172"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="3" t="s">
         <v>15</v>
@@ -4341,15 +4341,15 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="327"/>
-      <c r="F6" s="328"/>
-      <c r="G6" s="329"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="187"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="311"/>
-      <c r="J6" s="330" t="s">
+      <c r="I6" s="161"/>
+      <c r="J6" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="331"/>
+      <c r="K6" s="189"/>
       <c r="L6" s="13">
         <f>IF(E12&gt;0,E12,)</f>
         <v>0</v>
@@ -4358,11 +4358,11 @@
         <f>IF(F12&gt;0,F12,)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="332">
+      <c r="N6" s="190">
         <f>IF(G12&gt;0,G12,)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="333"/>
+      <c r="O6" s="191"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="15"/>
@@ -4395,15 +4395,15 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="334"/>
-      <c r="F7" s="335"/>
-      <c r="G7" s="336"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="311"/>
-      <c r="J7" s="282" t="s">
+      <c r="I7" s="161"/>
+      <c r="J7" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="283"/>
+      <c r="K7" s="177"/>
       <c r="L7" s="16">
         <f>IF(E14&gt;0,E14,)</f>
         <v>0</v>
@@ -4412,11 +4412,11 @@
         <f>IF(F14&gt;0,F14,)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="253">
+      <c r="N7" s="195">
         <f>IF(G14&gt;0,G14,)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="254"/>
+      <c r="O7" s="196"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="15"/>
@@ -4441,11 +4441,11 @@
     </row>
     <row r="8" spans="1:28" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="319" t="s">
+      <c r="B8" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="320"/>
-      <c r="D8" s="321"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="17" t="s">
         <v>12</v>
       </c>
@@ -4456,11 +4456,11 @@
         <v>14</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="311"/>
-      <c r="J8" s="282" t="s">
+      <c r="I8" s="161"/>
+      <c r="J8" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="283"/>
+      <c r="K8" s="177"/>
       <c r="L8" s="19">
         <f>IF(L6&gt;0,0.125,)</f>
         <v>0</v>
@@ -4469,11 +4469,11 @@
         <f>IF(M6&gt;0,0.125,)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="322">
+      <c r="N8" s="178">
         <f>IF(N6&gt;0,0.125,)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="323"/>
+      <c r="O8" s="179"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="15"/>
@@ -4495,24 +4495,24 @@
     </row>
     <row r="9" spans="1:28" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="324" t="s">
+      <c r="B9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="325"/>
-      <c r="D9" s="326"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="182"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="311"/>
-      <c r="J9" s="282" t="s">
+      <c r="I9" s="161"/>
+      <c r="J9" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="283"/>
+      <c r="K9" s="177"/>
       <c r="L9" s="134"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="284"/>
-      <c r="O9" s="285"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="184"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
@@ -4522,24 +4522,24 @@
     </row>
     <row r="10" spans="1:28" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="256"/>
-      <c r="D10" s="257"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="26"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="311"/>
-      <c r="J10" s="282" t="s">
+      <c r="I10" s="161"/>
+      <c r="J10" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="283"/>
+      <c r="K10" s="177"/>
       <c r="L10" s="135"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="284"/>
-      <c r="O10" s="285"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="184"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="15"/>
@@ -4552,20 +4552,20 @@
     </row>
     <row r="11" spans="1:28" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="255" t="s">
+      <c r="B11" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="256"/>
-      <c r="D11" s="257"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="282" t="s">
+      <c r="I11" s="161"/>
+      <c r="J11" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="283"/>
+      <c r="K11" s="177"/>
       <c r="L11" s="19">
         <f>IF(L6&gt;0,(L6*L9+L7*L10),)</f>
         <v>0</v>
@@ -4574,95 +4574,95 @@
         <f>IF(M6&gt;0,(M6*M9+M7*M10),)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="284">
+      <c r="N11" s="183">
         <f>IF(N6&gt;0,(N6*N9+N7*N10),)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="285"/>
+      <c r="O11" s="184"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="127"/>
       <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:28" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="255" t="s">
+      <c r="B12" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="257"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="199"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="26"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="311"/>
-      <c r="J12" s="275" t="s">
+      <c r="I12" s="161"/>
+      <c r="J12" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="276"/>
-      <c r="L12" s="277">
+      <c r="K12" s="201"/>
+      <c r="L12" s="202">
         <f>L11+M11+N11</f>
         <v>0</v>
       </c>
-      <c r="M12" s="278"/>
-      <c r="N12" s="278"/>
-      <c r="O12" s="279"/>
+      <c r="M12" s="203"/>
+      <c r="N12" s="203"/>
+      <c r="O12" s="204"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="28"/>
     </row>
     <row r="13" spans="1:28" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="257"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="199"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="311"/>
-      <c r="J13" s="280" t="s">
+      <c r="I13" s="161"/>
+      <c r="J13" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="281"/>
-      <c r="L13" s="281"/>
-      <c r="M13" s="281"/>
-      <c r="N13" s="281"/>
-      <c r="O13" s="281"/>
-      <c r="P13" s="281"/>
-      <c r="Q13" s="281"/>
-      <c r="R13" s="242"/>
+      <c r="K13" s="206"/>
+      <c r="L13" s="206"/>
+      <c r="M13" s="206"/>
+      <c r="N13" s="206"/>
+      <c r="O13" s="206"/>
+      <c r="P13" s="206"/>
+      <c r="Q13" s="206"/>
+      <c r="R13" s="172"/>
       <c r="U13" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="255" t="s">
+      <c r="B14" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="256"/>
-      <c r="D14" s="257"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="199"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="311"/>
-      <c r="J14" s="239" t="s">
+      <c r="I14" s="161"/>
+      <c r="J14" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="240"/>
+      <c r="K14" s="170"/>
       <c r="L14" s="133" t="s">
         <v>12</v>
       </c>
       <c r="M14" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="241" t="s">
+      <c r="N14" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="242"/>
+      <c r="O14" s="172"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="3" t="s">
         <v>15</v>
@@ -4673,17 +4673,17 @@
     </row>
     <row r="15" spans="1:28" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="255" t="s">
+      <c r="B15" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="257"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="311"/>
-      <c r="J15" s="271" t="s">
+      <c r="I15" s="161"/>
+      <c r="J15" s="207" t="s">
         <v>43</v>
       </c>
       <c r="K15" s="29">
@@ -4691,67 +4691,67 @@
       </c>
       <c r="L15" s="29"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="273"/>
-      <c r="O15" s="274"/>
+      <c r="N15" s="209"/>
+      <c r="O15" s="210"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="32"/>
     </row>
     <row r="16" spans="1:28" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="255" t="s">
+      <c r="B16" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="257"/>
+      <c r="C16" s="198"/>
+      <c r="D16" s="199"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="311"/>
-      <c r="J16" s="272"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="208"/>
       <c r="K16" s="35">
         <v>1</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="267"/>
+      <c r="N16" s="211"/>
+      <c r="O16" s="212"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="255" t="s">
+      <c r="B17" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="256"/>
-      <c r="D17" s="257"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="199"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="311"/>
-      <c r="J17" s="272"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="208"/>
       <c r="K17" s="35">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="266"/>
-      <c r="O17" s="267"/>
+      <c r="N17" s="211"/>
+      <c r="O17" s="212"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="36"/>
     </row>
     <row r="18" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="255" t="s">
+      <c r="B18" s="197" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="257"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="199"/>
       <c r="E18" s="129" t="str">
         <f>IF(E10="HGL",2.4,IF(E10="LGL",2.2,IF(E10="Reject",2,IF(E10="Base",2.4,IF(E10="Special",2,"-")))))</f>
         <v>-</v>
@@ -4759,15 +4759,15 @@
       <c r="F18" s="129"/>
       <c r="G18" s="129"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="311"/>
-      <c r="J18" s="272"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="208"/>
       <c r="K18" s="35">
         <v>3</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="266"/>
-      <c r="O18" s="267"/>
+      <c r="N18" s="211"/>
+      <c r="O18" s="212"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="36"/>
@@ -4785,11 +4785,11 @@
     </row>
     <row r="19" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="255" t="s">
+      <c r="B19" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="256"/>
-      <c r="D19" s="257"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
       <c r="E19" s="37">
         <f>IF(E12&gt;0,E12*E13*E16*E17*E18,)</f>
         <v>0</v>
@@ -4797,15 +4797,15 @@
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="311"/>
-      <c r="J19" s="272"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="208"/>
       <c r="K19" s="35">
         <v>4</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="266"/>
-      <c r="O19" s="267"/>
+      <c r="N19" s="211"/>
+      <c r="O19" s="212"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="36"/>
@@ -4824,15 +4824,15 @@
       <c r="F20" s="111"/>
       <c r="G20" s="111"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="311"/>
-      <c r="J20" s="272"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="208"/>
       <c r="K20" s="35">
         <v>5</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="266"/>
-      <c r="O20" s="267"/>
+      <c r="N20" s="211"/>
+      <c r="O20" s="212"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="36"/>
@@ -4851,50 +4851,50 @@
       <c r="F21" s="111"/>
       <c r="G21" s="112"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="311"/>
-      <c r="J21" s="272"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="208"/>
       <c r="K21" s="35">
         <v>6</v>
       </c>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="266"/>
-      <c r="O21" s="267"/>
+      <c r="N21" s="211"/>
+      <c r="O21" s="212"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:31" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="255" t="s">
+      <c r="B22" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="256"/>
-      <c r="D22" s="257"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="39"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="311"/>
-      <c r="J22" s="272"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="208"/>
       <c r="K22" s="35">
         <v>7</v>
       </c>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="266"/>
-      <c r="O22" s="267"/>
+      <c r="N22" s="211"/>
+      <c r="O22" s="212"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="36"/>
     </row>
     <row r="23" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="268" t="s">
+      <c r="B23" s="221" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="269"/>
-      <c r="D23" s="270"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="223"/>
       <c r="E23" s="40" t="s">
         <v>12</v>
       </c>
@@ -4905,59 +4905,59 @@
         <v>14</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="311"/>
-      <c r="J23" s="272"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="208"/>
       <c r="K23" s="35">
         <v>8</v>
       </c>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="266"/>
-      <c r="O23" s="267"/>
+      <c r="N23" s="211"/>
+      <c r="O23" s="212"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="36"/>
     </row>
     <row r="24" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="255" t="s">
+      <c r="B24" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="256"/>
-      <c r="D24" s="257"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="199"/>
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="36"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="311"/>
-      <c r="J24" s="272"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="208"/>
       <c r="K24" s="35">
         <v>9</v>
       </c>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="266"/>
-      <c r="O24" s="267"/>
+      <c r="N24" s="211"/>
+      <c r="O24" s="212"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="255" t="s">
+      <c r="B25" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="256"/>
-      <c r="D25" s="257"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="199"/>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="36"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="311"/>
-      <c r="J25" s="258" t="s">
+      <c r="I25" s="161"/>
+      <c r="J25" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="259"/>
+      <c r="K25" s="214"/>
       <c r="L25" s="43">
         <f>IF(E12&gt;0,SUM(L15:L24),)</f>
         <v>0</v>
@@ -4966,65 +4966,65 @@
         <f>IF(F12&gt;0,SUM(M15:M24),)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="260">
+      <c r="N25" s="215">
         <f>IF(G12&gt;0,SUM(N15:N24),)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="261"/>
+      <c r="O25" s="216"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="45"/>
     </row>
     <row r="26" spans="1:31" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="255" t="s">
+      <c r="B26" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="256"/>
-      <c r="D26" s="257"/>
+      <c r="C26" s="198"/>
+      <c r="D26" s="199"/>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="36"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="311"/>
-      <c r="J26" s="262" t="s">
+      <c r="I26" s="161"/>
+      <c r="J26" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="K26" s="263"/>
-      <c r="L26" s="264">
+      <c r="K26" s="218"/>
+      <c r="L26" s="219">
         <f>L25+M25+N25</f>
         <v>0</v>
       </c>
-      <c r="M26" s="265"/>
-      <c r="N26" s="265"/>
-      <c r="O26" s="265"/>
+      <c r="M26" s="220"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="28"/>
     </row>
     <row r="27" spans="1:31" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="233" t="s">
+      <c r="B27" s="232" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="234"/>
-      <c r="D27" s="235"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="234"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
       <c r="G27" s="47"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="311"/>
-      <c r="J27" s="236" t="s">
+      <c r="I27" s="161"/>
+      <c r="J27" s="235" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="237"/>
-      <c r="L27" s="237"/>
-      <c r="M27" s="237"/>
-      <c r="N27" s="237"/>
-      <c r="O27" s="237"/>
-      <c r="P27" s="237"/>
-      <c r="Q27" s="237"/>
-      <c r="R27" s="238"/>
+      <c r="K27" s="236"/>
+      <c r="L27" s="236"/>
+      <c r="M27" s="236"/>
+      <c r="N27" s="236"/>
+      <c r="O27" s="236"/>
+      <c r="P27" s="236"/>
+      <c r="Q27" s="236"/>
+      <c r="R27" s="237"/>
     </row>
     <row r="28" spans="1:31" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
@@ -5037,21 +5037,21 @@
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="311"/>
-      <c r="J28" s="239" t="s">
+      <c r="I28" s="161"/>
+      <c r="J28" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="240"/>
+      <c r="K28" s="170"/>
       <c r="L28" s="133" t="s">
         <v>12</v>
       </c>
       <c r="M28" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="241" t="s">
+      <c r="N28" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="242"/>
+      <c r="O28" s="172"/>
       <c r="P28" s="51"/>
       <c r="Q28" s="52" t="s">
         <v>15</v>
@@ -5069,11 +5069,11 @@
       <c r="F29" s="55"/>
       <c r="G29" s="56"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="311"/>
-      <c r="J29" s="243" t="s">
+      <c r="I29" s="161"/>
+      <c r="J29" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="244"/>
+      <c r="K29" s="239"/>
       <c r="L29" s="13">
         <f>IF(E12&gt;0,E12,)</f>
         <v>0</v>
@@ -5082,14 +5082,14 @@
         <f>IF(F12&gt;0,F12,)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="245">
+      <c r="N29" s="240">
         <f>IF(G12&gt;0,G12,)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="246"/>
+      <c r="O29" s="241"/>
       <c r="P29" s="51"/>
-      <c r="Q29" s="247"/>
-      <c r="R29" s="248"/>
+      <c r="Q29" s="242"/>
+      <c r="R29" s="243"/>
     </row>
     <row r="30" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -5100,11 +5100,11 @@
       <c r="F30" s="55"/>
       <c r="G30" s="56"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="311"/>
-      <c r="J30" s="227" t="s">
+      <c r="I30" s="161"/>
+      <c r="J30" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="K30" s="228"/>
+      <c r="K30" s="227"/>
       <c r="L30" s="16">
         <f>IF(E14&gt;0,E14,)</f>
         <v>0</v>
@@ -5113,14 +5113,14 @@
         <f>IF(F14&gt;0,F14,)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="253">
+      <c r="N30" s="195">
         <f>IF(G12&gt;0,G12,)</f>
         <v>0</v>
       </c>
-      <c r="O30" s="254"/>
+      <c r="O30" s="196"/>
       <c r="P30" s="51"/>
-      <c r="Q30" s="249"/>
-      <c r="R30" s="250"/>
+      <c r="Q30" s="244"/>
+      <c r="R30" s="245"/>
     </row>
     <row r="31" spans="1:31" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
@@ -5131,18 +5131,18 @@
       <c r="F31" s="55"/>
       <c r="G31" s="56"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="311"/>
-      <c r="J31" s="227" t="s">
+      <c r="I31" s="161"/>
+      <c r="J31" s="226" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="228"/>
+      <c r="K31" s="227"/>
       <c r="L31" s="57"/>
       <c r="M31" s="57"/>
-      <c r="N31" s="225"/>
-      <c r="O31" s="226"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="225"/>
       <c r="P31" s="51"/>
-      <c r="Q31" s="249"/>
-      <c r="R31" s="250"/>
+      <c r="Q31" s="244"/>
+      <c r="R31" s="245"/>
     </row>
     <row r="32" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -5153,22 +5153,22 @@
       <c r="F32" s="55"/>
       <c r="G32" s="56"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="311"/>
-      <c r="J32" s="227" t="s">
+      <c r="I32" s="161"/>
+      <c r="J32" s="226" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="228"/>
+      <c r="K32" s="227"/>
       <c r="L32" s="57"/>
       <c r="M32" s="57"/>
-      <c r="N32" s="225"/>
-      <c r="O32" s="226"/>
+      <c r="N32" s="224"/>
+      <c r="O32" s="225"/>
       <c r="P32" s="51"/>
-      <c r="Q32" s="251"/>
-      <c r="R32" s="252"/>
-      <c r="U32" s="286" t="s">
+      <c r="Q32" s="246"/>
+      <c r="R32" s="247"/>
+      <c r="U32" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="V32" s="287"/>
+      <c r="V32" s="137"/>
       <c r="W32" s="130"/>
       <c r="X32" s="115" t="s">
         <v>12</v>
@@ -5189,22 +5189,25 @@
       <c r="F33" s="55"/>
       <c r="G33" s="56"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="311"/>
-      <c r="J33" s="229" t="s">
+      <c r="I33" s="161"/>
+      <c r="J33" s="228" t="s">
         <v>64</v>
       </c>
-      <c r="K33" s="230"/>
-      <c r="L33" s="58"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="58">
+        <f>IF(L29&gt;0,(L29*L31+L30*L32),)</f>
+        <v>0</v>
+      </c>
       <c r="M33" s="58"/>
-      <c r="N33" s="231"/>
-      <c r="O33" s="232"/>
+      <c r="N33" s="230"/>
+      <c r="O33" s="231"/>
       <c r="P33" s="51"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="45"/>
-      <c r="U33" s="288" t="s">
+      <c r="U33" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="V33" s="289"/>
+      <c r="V33" s="139"/>
       <c r="W33" s="131"/>
       <c r="X33" s="123">
         <f>IF(L29&gt;0,L29*L31+L30*L32,)</f>
@@ -5228,11 +5231,11 @@
       <c r="F34" s="55"/>
       <c r="G34" s="56"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="311"/>
-      <c r="J34" s="229" t="s">
+      <c r="I34" s="161"/>
+      <c r="J34" s="228" t="s">
         <v>65</v>
       </c>
-      <c r="K34" s="230"/>
+      <c r="K34" s="229"/>
       <c r="L34" s="58">
         <f>L33/25</f>
         <v>0</v>
@@ -5241,18 +5244,18 @@
         <f>M33/25</f>
         <v>0</v>
       </c>
-      <c r="N34" s="231">
+      <c r="N34" s="230">
         <f>N33/25</f>
         <v>0</v>
       </c>
-      <c r="O34" s="232"/>
+      <c r="O34" s="231"/>
       <c r="P34" s="51"/>
       <c r="Q34" s="44"/>
       <c r="R34" s="45"/>
-      <c r="U34" s="290" t="s">
+      <c r="U34" s="140" t="s">
         <v>125</v>
       </c>
-      <c r="V34" s="291"/>
+      <c r="V34" s="141"/>
       <c r="W34" s="132"/>
       <c r="X34" s="120">
         <f>X33/25</f>
@@ -5276,11 +5279,11 @@
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
       <c r="H35" s="62"/>
-      <c r="I35" s="312"/>
-      <c r="J35" s="215" t="s">
+      <c r="I35" s="162"/>
+      <c r="J35" s="259" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="216"/>
+      <c r="K35" s="260"/>
       <c r="L35" s="63" t="str">
         <f>IF(L34&gt;0,L34*2,"")</f>
         <v/>
@@ -5289,11 +5292,11 @@
         <f>IF(M34&gt;0,M34*2,"")</f>
         <v/>
       </c>
-      <c r="N35" s="217" t="str">
+      <c r="N35" s="261" t="str">
         <f>IF(N34&gt;0,N34*2,"")</f>
         <v/>
       </c>
-      <c r="O35" s="218"/>
+      <c r="O35" s="262"/>
       <c r="P35" s="64"/>
       <c r="Q35" s="65"/>
       <c r="R35" s="47"/>
@@ -5306,50 +5309,50 @@
       <c r="D37" s="67"/>
       <c r="E37" s="66"/>
       <c r="F37" s="67"/>
-      <c r="G37" s="219" t="s">
+      <c r="G37" s="263" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219"/>
-      <c r="K37" s="219"/>
-      <c r="L37" s="219"/>
-      <c r="M37" s="219"/>
-      <c r="N37" s="219"/>
-      <c r="O37" s="219"/>
-      <c r="P37" s="219"/>
-      <c r="Q37" s="220"/>
-      <c r="R37" s="221"/>
+      <c r="H37" s="263"/>
+      <c r="I37" s="263"/>
+      <c r="J37" s="263"/>
+      <c r="K37" s="263"/>
+      <c r="L37" s="263"/>
+      <c r="M37" s="263"/>
+      <c r="N37" s="263"/>
+      <c r="O37" s="263"/>
+      <c r="P37" s="263"/>
+      <c r="Q37" s="264"/>
+      <c r="R37" s="265"/>
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="68"/>
       <c r="E38" s="68"/>
-      <c r="G38" s="222" t="s">
+      <c r="G38" s="266" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="222"/>
-      <c r="I38" s="222"/>
-      <c r="J38" s="222"/>
-      <c r="K38" s="222"/>
-      <c r="L38" s="222"/>
-      <c r="M38" s="222"/>
-      <c r="N38" s="222"/>
-      <c r="O38" s="222"/>
-      <c r="P38" s="222"/>
-      <c r="Q38" s="223" t="s">
+      <c r="H38" s="266"/>
+      <c r="I38" s="266"/>
+      <c r="J38" s="266"/>
+      <c r="K38" s="266"/>
+      <c r="L38" s="266"/>
+      <c r="M38" s="266"/>
+      <c r="N38" s="266"/>
+      <c r="O38" s="266"/>
+      <c r="P38" s="266"/>
+      <c r="Q38" s="267" t="s">
         <v>69</v>
       </c>
-      <c r="R38" s="224"/>
+      <c r="R38" s="268"/>
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="B39" s="204" t="s">
+      <c r="B39" s="248" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="205"/>
+      <c r="C39" s="249"/>
       <c r="D39" s="69" t="str">
         <f>IF(E10&gt;0,E10,"-")</f>
         <v>-</v>
@@ -5371,10 +5374,10 @@
       <c r="M39" s="74"/>
       <c r="N39" s="74"/>
       <c r="O39" s="75"/>
-      <c r="P39" s="206" t="s">
+      <c r="P39" s="250" t="s">
         <v>71</v>
       </c>
-      <c r="Q39" s="207"/>
+      <c r="Q39" s="251"/>
       <c r="R39" s="76">
         <f>E5</f>
         <v>0</v>
@@ -5394,32 +5397,32 @@
         <v>72</v>
       </c>
       <c r="C40" s="79"/>
-      <c r="D40" s="208" t="s">
+      <c r="D40" s="252" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="209"/>
-      <c r="F40" s="210"/>
+      <c r="E40" s="253"/>
+      <c r="F40" s="254"/>
       <c r="G40" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="H40" s="211" t="s">
+      <c r="H40" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="I40" s="212"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="214" t="s">
+      <c r="I40" s="256"/>
+      <c r="J40" s="257"/>
+      <c r="K40" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="214"/>
-      <c r="M40" s="214" t="s">
+      <c r="L40" s="258"/>
+      <c r="M40" s="258" t="s">
         <v>77</v>
       </c>
-      <c r="N40" s="214"/>
-      <c r="O40" s="214"/>
-      <c r="P40" s="214" t="s">
+      <c r="N40" s="258"/>
+      <c r="O40" s="258"/>
+      <c r="P40" s="258" t="s">
         <v>78</v>
       </c>
-      <c r="Q40" s="214"/>
+      <c r="Q40" s="258"/>
       <c r="R40" s="81" t="s">
         <v>79</v>
       </c>
@@ -5430,54 +5433,54 @@
       <c r="B41" s="82">
         <v>1</v>
       </c>
-      <c r="C41" s="199" t="s">
+      <c r="C41" s="287" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="200"/>
-      <c r="E41" s="201" t="s">
+      <c r="D41" s="288"/>
+      <c r="E41" s="289" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="202"/>
-      <c r="G41" s="191" t="s">
+      <c r="F41" s="290"/>
+      <c r="G41" s="277" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="203">
+      <c r="H41" s="291">
         <f>L26</f>
         <v>0</v>
       </c>
-      <c r="I41" s="180"/>
-      <c r="J41" s="181"/>
-      <c r="K41" s="191"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="191"/>
-      <c r="Q41" s="191"/>
-      <c r="R41" s="192"/>
+      <c r="I41" s="292"/>
+      <c r="J41" s="293"/>
+      <c r="K41" s="277"/>
+      <c r="L41" s="277"/>
+      <c r="M41" s="277"/>
+      <c r="N41" s="277"/>
+      <c r="O41" s="277"/>
+      <c r="P41" s="277"/>
+      <c r="Q41" s="277"/>
+      <c r="R41" s="278"/>
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="83"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="178"/>
-      <c r="E42" s="158">
+      <c r="C42" s="273"/>
+      <c r="D42" s="274"/>
+      <c r="E42" s="275">
         <v>40320000122</v>
       </c>
-      <c r="F42" s="160"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="182"/>
-      <c r="I42" s="183"/>
-      <c r="J42" s="184"/>
-      <c r="K42" s="169"/>
-      <c r="L42" s="169"/>
-      <c r="M42" s="169"/>
-      <c r="N42" s="169"/>
-      <c r="O42" s="169"/>
-      <c r="P42" s="169"/>
-      <c r="Q42" s="169"/>
-      <c r="R42" s="176"/>
+      <c r="F42" s="276"/>
+      <c r="G42" s="271"/>
+      <c r="H42" s="294"/>
+      <c r="I42" s="295"/>
+      <c r="J42" s="296"/>
+      <c r="K42" s="271"/>
+      <c r="L42" s="271"/>
+      <c r="M42" s="271"/>
+      <c r="N42" s="271"/>
+      <c r="O42" s="271"/>
+      <c r="P42" s="271"/>
+      <c r="Q42" s="271"/>
+      <c r="R42" s="272"/>
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5485,66 +5488,66 @@
       <c r="B43" s="84">
         <v>2</v>
       </c>
-      <c r="C43" s="167" t="s">
+      <c r="C43" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="168"/>
-      <c r="E43" s="158" t="s">
+      <c r="D43" s="280"/>
+      <c r="E43" s="275" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="160"/>
-      <c r="G43" s="169" t="s">
+      <c r="F43" s="276"/>
+      <c r="G43" s="271" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="193">
+      <c r="H43" s="281">
         <f>L12</f>
         <v>0</v>
       </c>
-      <c r="I43" s="194"/>
-      <c r="J43" s="195"/>
-      <c r="K43" s="169"/>
+      <c r="I43" s="282"/>
+      <c r="J43" s="283"/>
+      <c r="K43" s="271"/>
       <c r="L43" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M43" s="169"/>
-      <c r="N43" s="189" t="s">
+      <c r="M43" s="271"/>
+      <c r="N43" s="269" t="s">
         <v>86</v>
       </c>
-      <c r="O43" s="190"/>
-      <c r="P43" s="169"/>
+      <c r="O43" s="270"/>
+      <c r="P43" s="271"/>
       <c r="Q43" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="R43" s="176"/>
+      <c r="R43" s="272"/>
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="83"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="158">
+      <c r="C44" s="273"/>
+      <c r="D44" s="274"/>
+      <c r="E44" s="275">
         <v>40320000321</v>
       </c>
-      <c r="F44" s="160"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="197"/>
-      <c r="J44" s="198"/>
-      <c r="K44" s="169"/>
+      <c r="F44" s="276"/>
+      <c r="G44" s="271"/>
+      <c r="H44" s="284"/>
+      <c r="I44" s="285"/>
+      <c r="J44" s="286"/>
+      <c r="K44" s="271"/>
       <c r="L44" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="M44" s="169"/>
-      <c r="N44" s="189" t="s">
+      <c r="M44" s="271"/>
+      <c r="N44" s="269" t="s">
         <v>87</v>
       </c>
-      <c r="O44" s="190"/>
-      <c r="P44" s="169"/>
+      <c r="O44" s="270"/>
+      <c r="P44" s="271"/>
       <c r="Q44" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="R44" s="176"/>
+      <c r="R44" s="272"/>
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5552,54 +5555,54 @@
       <c r="B45" s="84">
         <v>3</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="298" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="186"/>
-      <c r="E45" s="158" t="s">
+      <c r="D45" s="299"/>
+      <c r="E45" s="275" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="160"/>
-      <c r="G45" s="169" t="s">
+      <c r="F45" s="276"/>
+      <c r="G45" s="271" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="179">
+      <c r="H45" s="297">
         <f>SUM(L33:O33)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="180"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="169"/>
-      <c r="L45" s="169"/>
-      <c r="M45" s="169"/>
-      <c r="N45" s="169"/>
-      <c r="O45" s="169"/>
-      <c r="P45" s="169"/>
-      <c r="Q45" s="169"/>
-      <c r="R45" s="176"/>
+      <c r="I45" s="292"/>
+      <c r="J45" s="293"/>
+      <c r="K45" s="271"/>
+      <c r="L45" s="271"/>
+      <c r="M45" s="271"/>
+      <c r="N45" s="271"/>
+      <c r="O45" s="271"/>
+      <c r="P45" s="271"/>
+      <c r="Q45" s="271"/>
+      <c r="R45" s="272"/>
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="83"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="158">
+      <c r="C46" s="273"/>
+      <c r="D46" s="274"/>
+      <c r="E46" s="275">
         <v>40320000121</v>
       </c>
-      <c r="F46" s="160"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="182"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="184"/>
-      <c r="K46" s="169"/>
-      <c r="L46" s="169"/>
-      <c r="M46" s="169"/>
-      <c r="N46" s="169"/>
-      <c r="O46" s="169"/>
-      <c r="P46" s="169"/>
-      <c r="Q46" s="169"/>
-      <c r="R46" s="176"/>
+      <c r="F46" s="276"/>
+      <c r="G46" s="271"/>
+      <c r="H46" s="294"/>
+      <c r="I46" s="295"/>
+      <c r="J46" s="296"/>
+      <c r="K46" s="271"/>
+      <c r="L46" s="271"/>
+      <c r="M46" s="271"/>
+      <c r="N46" s="271"/>
+      <c r="O46" s="271"/>
+      <c r="P46" s="271"/>
+      <c r="Q46" s="271"/>
+      <c r="R46" s="272"/>
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5607,54 +5610,54 @@
       <c r="B47" s="84">
         <v>4</v>
       </c>
-      <c r="C47" s="167" t="s">
+      <c r="C47" s="279" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="168"/>
-      <c r="E47" s="158" t="s">
+      <c r="D47" s="280"/>
+      <c r="E47" s="275" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="160"/>
-      <c r="G47" s="169" t="s">
+      <c r="F47" s="276"/>
+      <c r="G47" s="271" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="179">
+      <c r="H47" s="297">
         <f>SUM(L35:O35)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="180"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="169"/>
-      <c r="M47" s="169"/>
-      <c r="N47" s="169"/>
-      <c r="O47" s="169"/>
-      <c r="P47" s="169"/>
-      <c r="Q47" s="169"/>
-      <c r="R47" s="176"/>
+      <c r="I47" s="292"/>
+      <c r="J47" s="293"/>
+      <c r="K47" s="271"/>
+      <c r="L47" s="271"/>
+      <c r="M47" s="271"/>
+      <c r="N47" s="271"/>
+      <c r="O47" s="271"/>
+      <c r="P47" s="271"/>
+      <c r="Q47" s="271"/>
+      <c r="R47" s="272"/>
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="83"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="187">
+      <c r="C48" s="273"/>
+      <c r="D48" s="274"/>
+      <c r="E48" s="300">
         <v>30200000002</v>
       </c>
-      <c r="F48" s="188"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="182"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="184"/>
-      <c r="K48" s="169"/>
-      <c r="L48" s="169"/>
-      <c r="M48" s="169"/>
-      <c r="N48" s="169"/>
-      <c r="O48" s="169"/>
-      <c r="P48" s="169"/>
-      <c r="Q48" s="169"/>
-      <c r="R48" s="176"/>
+      <c r="F48" s="301"/>
+      <c r="G48" s="271"/>
+      <c r="H48" s="294"/>
+      <c r="I48" s="295"/>
+      <c r="J48" s="296"/>
+      <c r="K48" s="271"/>
+      <c r="L48" s="271"/>
+      <c r="M48" s="271"/>
+      <c r="N48" s="271"/>
+      <c r="O48" s="271"/>
+      <c r="P48" s="271"/>
+      <c r="Q48" s="271"/>
+      <c r="R48" s="272"/>
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5662,51 +5665,51 @@
       <c r="B49" s="84">
         <v>5</v>
       </c>
-      <c r="C49" s="167" t="s">
+      <c r="C49" s="279" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="168"/>
-      <c r="E49" s="158" t="s">
+      <c r="D49" s="280"/>
+      <c r="E49" s="275" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="160"/>
-      <c r="G49" s="169" t="s">
+      <c r="F49" s="276"/>
+      <c r="G49" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="170"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="172"/>
-      <c r="K49" s="169"/>
-      <c r="L49" s="169"/>
-      <c r="M49" s="169"/>
-      <c r="N49" s="169"/>
-      <c r="O49" s="169"/>
-      <c r="P49" s="169"/>
-      <c r="Q49" s="169"/>
-      <c r="R49" s="176"/>
+      <c r="H49" s="302"/>
+      <c r="I49" s="303"/>
+      <c r="J49" s="304"/>
+      <c r="K49" s="271"/>
+      <c r="L49" s="271"/>
+      <c r="M49" s="271"/>
+      <c r="N49" s="271"/>
+      <c r="O49" s="271"/>
+      <c r="P49" s="271"/>
+      <c r="Q49" s="271"/>
+      <c r="R49" s="272"/>
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="83"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="158">
+      <c r="C50" s="273"/>
+      <c r="D50" s="274"/>
+      <c r="E50" s="275">
         <v>40310002208</v>
       </c>
-      <c r="F50" s="160"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="173"/>
-      <c r="I50" s="174"/>
-      <c r="J50" s="175"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="169"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="169"/>
-      <c r="P50" s="169"/>
-      <c r="Q50" s="169"/>
-      <c r="R50" s="176"/>
+      <c r="F50" s="276"/>
+      <c r="G50" s="271"/>
+      <c r="H50" s="305"/>
+      <c r="I50" s="306"/>
+      <c r="J50" s="307"/>
+      <c r="K50" s="271"/>
+      <c r="L50" s="271"/>
+      <c r="M50" s="271"/>
+      <c r="N50" s="271"/>
+      <c r="O50" s="271"/>
+      <c r="P50" s="271"/>
+      <c r="Q50" s="271"/>
+      <c r="R50" s="272"/>
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5714,49 +5717,49 @@
       <c r="B51" s="84">
         <v>6</v>
       </c>
-      <c r="C51" s="167" t="s">
+      <c r="C51" s="279" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="168"/>
-      <c r="E51" s="158" t="s">
+      <c r="D51" s="280"/>
+      <c r="E51" s="275" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="160"/>
-      <c r="G51" s="169" t="s">
+      <c r="F51" s="276"/>
+      <c r="G51" s="271" t="s">
         <v>82</v>
       </c>
-      <c r="H51" s="170"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="172"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="169"/>
-      <c r="M51" s="169"/>
-      <c r="N51" s="169"/>
-      <c r="O51" s="169"/>
-      <c r="P51" s="169"/>
-      <c r="Q51" s="169"/>
-      <c r="R51" s="176"/>
+      <c r="H51" s="302"/>
+      <c r="I51" s="303"/>
+      <c r="J51" s="304"/>
+      <c r="K51" s="271"/>
+      <c r="L51" s="271"/>
+      <c r="M51" s="271"/>
+      <c r="N51" s="271"/>
+      <c r="O51" s="271"/>
+      <c r="P51" s="271"/>
+      <c r="Q51" s="271"/>
+      <c r="R51" s="272"/>
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="83"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="160"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="173"/>
-      <c r="I52" s="174"/>
-      <c r="J52" s="175"/>
-      <c r="K52" s="169"/>
-      <c r="L52" s="169"/>
-      <c r="M52" s="169"/>
-      <c r="N52" s="169"/>
-      <c r="O52" s="169"/>
-      <c r="P52" s="169"/>
-      <c r="Q52" s="169"/>
-      <c r="R52" s="176"/>
+      <c r="C52" s="273"/>
+      <c r="D52" s="274"/>
+      <c r="E52" s="275"/>
+      <c r="F52" s="276"/>
+      <c r="G52" s="271"/>
+      <c r="H52" s="305"/>
+      <c r="I52" s="306"/>
+      <c r="J52" s="307"/>
+      <c r="K52" s="271"/>
+      <c r="L52" s="271"/>
+      <c r="M52" s="271"/>
+      <c r="N52" s="271"/>
+      <c r="O52" s="271"/>
+      <c r="P52" s="271"/>
+      <c r="Q52" s="271"/>
+      <c r="R52" s="272"/>
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5764,21 +5767,21 @@
       <c r="B53" s="86">
         <v>7</v>
       </c>
-      <c r="C53" s="154"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="157"/>
+      <c r="C53" s="308"/>
+      <c r="D53" s="309"/>
+      <c r="E53" s="310"/>
+      <c r="F53" s="311"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="161"/>
-      <c r="M53" s="161"/>
-      <c r="N53" s="161"/>
-      <c r="O53" s="161"/>
-      <c r="P53" s="161"/>
-      <c r="Q53" s="161"/>
+      <c r="H53" s="275"/>
+      <c r="I53" s="312"/>
+      <c r="J53" s="276"/>
+      <c r="K53" s="313"/>
+      <c r="L53" s="313"/>
+      <c r="M53" s="313"/>
+      <c r="N53" s="313"/>
+      <c r="O53" s="313"/>
+      <c r="P53" s="313"/>
+      <c r="Q53" s="313"/>
       <c r="R53" s="87"/>
       <c r="S53" s="1"/>
     </row>
@@ -5789,27 +5792,27 @@
       <c r="D54" s="67"/>
       <c r="E54" s="67"/>
       <c r="F54" s="67"/>
-      <c r="G54" s="144" t="s">
+      <c r="G54" s="321" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="145"/>
-      <c r="I54" s="146" t="s">
+      <c r="H54" s="322"/>
+      <c r="I54" s="323" t="s">
         <v>98</v>
       </c>
-      <c r="J54" s="145"/>
-      <c r="K54" s="147" t="s">
+      <c r="J54" s="322"/>
+      <c r="K54" s="324" t="s">
         <v>99</v>
       </c>
-      <c r="L54" s="147"/>
-      <c r="M54" s="147" t="s">
+      <c r="L54" s="324"/>
+      <c r="M54" s="324" t="s">
         <v>100</v>
       </c>
-      <c r="N54" s="147"/>
-      <c r="O54" s="147"/>
-      <c r="P54" s="147" t="s">
+      <c r="N54" s="324"/>
+      <c r="O54" s="324"/>
+      <c r="P54" s="324" t="s">
         <v>99</v>
       </c>
-      <c r="Q54" s="147"/>
+      <c r="Q54" s="324"/>
       <c r="R54" s="88" t="s">
         <v>98</v>
       </c>
@@ -5818,41 +5821,41 @@
     <row r="55" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="68"/>
-      <c r="G55" s="148" t="s">
+      <c r="G55" s="325" t="s">
         <v>101</v>
       </c>
-      <c r="H55" s="149"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="151"/>
-      <c r="K55" s="152"/>
-      <c r="L55" s="152"/>
-      <c r="M55" s="153"/>
-      <c r="N55" s="152"/>
-      <c r="O55" s="152"/>
-      <c r="P55" s="152">
+      <c r="H55" s="326"/>
+      <c r="I55" s="327"/>
+      <c r="J55" s="328"/>
+      <c r="K55" s="329"/>
+      <c r="L55" s="329"/>
+      <c r="M55" s="330"/>
+      <c r="N55" s="329"/>
+      <c r="O55" s="329"/>
+      <c r="P55" s="329">
         <f>K55</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="152"/>
+      <c r="Q55" s="329"/>
       <c r="R55" s="118"/>
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="68"/>
-      <c r="G56" s="162" t="s">
+      <c r="G56" s="314" t="s">
         <v>102</v>
       </c>
-      <c r="H56" s="163"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="166"/>
-      <c r="L56" s="166"/>
-      <c r="M56" s="166"/>
-      <c r="N56" s="166"/>
-      <c r="O56" s="166"/>
-      <c r="P56" s="166"/>
-      <c r="Q56" s="166"/>
+      <c r="H56" s="315"/>
+      <c r="I56" s="316"/>
+      <c r="J56" s="317"/>
+      <c r="K56" s="318"/>
+      <c r="L56" s="318"/>
+      <c r="M56" s="318"/>
+      <c r="N56" s="318"/>
+      <c r="O56" s="318"/>
+      <c r="P56" s="318"/>
+      <c r="Q56" s="318"/>
       <c r="R56" s="119"/>
       <c r="S56" s="1"/>
     </row>
@@ -5870,12 +5873,12 @@
       <c r="G58" s="91"/>
       <c r="H58" s="91"/>
       <c r="I58" s="91"/>
-      <c r="J58" s="142" t="s">
+      <c r="J58" s="319" t="s">
         <v>103</v>
       </c>
-      <c r="K58" s="143"/>
-      <c r="L58" s="143"/>
-      <c r="M58" s="143"/>
+      <c r="K58" s="320"/>
+      <c r="L58" s="320"/>
+      <c r="M58" s="320"/>
       <c r="N58" s="92"/>
       <c r="R58" s="89"/>
       <c r="S58" s="1"/>
@@ -5908,8 +5911,8 @@
     <row r="60" spans="1:19" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="68"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="137">
+      <c r="D60" s="336"/>
+      <c r="E60" s="332">
         <f>ROUNDDOWN(H43/25,0)</f>
         <v>0</v>
       </c>
@@ -5921,8 +5924,8 @@
         <v>0</v>
       </c>
       <c r="H60" s="94"/>
-      <c r="J60" s="141"/>
-      <c r="K60" s="139"/>
+      <c r="J60" s="336"/>
+      <c r="K60" s="334"/>
       <c r="L60" s="94" t="s">
         <v>107</v>
       </c>
@@ -5935,8 +5938,8 @@
     <row r="61" spans="1:19" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="68"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="138"/>
+      <c r="D61" s="336"/>
+      <c r="E61" s="333"/>
       <c r="F61" s="94" t="s">
         <v>108</v>
       </c>
@@ -5945,8 +5948,8 @@
         <v>0</v>
       </c>
       <c r="H61" s="94"/>
-      <c r="J61" s="141"/>
-      <c r="K61" s="140"/>
+      <c r="J61" s="336"/>
+      <c r="K61" s="335"/>
       <c r="L61" s="94" t="s">
         <v>108</v>
       </c>
@@ -5964,8 +5967,8 @@
     <row r="62" spans="1:19" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="68"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="137">
+      <c r="D62" s="336"/>
+      <c r="E62" s="332">
         <f>((H43/25)-E60)*200</f>
         <v>0</v>
       </c>
@@ -5977,8 +5980,8 @@
         <v>0</v>
       </c>
       <c r="H62" s="94"/>
-      <c r="J62" s="141"/>
-      <c r="K62" s="139"/>
+      <c r="J62" s="336"/>
+      <c r="K62" s="334"/>
       <c r="L62" s="94" t="s">
         <v>110</v>
       </c>
@@ -5996,8 +5999,8 @@
     <row r="63" spans="1:19" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="68"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="138"/>
+      <c r="D63" s="336"/>
+      <c r="E63" s="333"/>
       <c r="F63" s="94" t="s">
         <v>112</v>
       </c>
@@ -6006,8 +6009,8 @@
         <v>0</v>
       </c>
       <c r="H63" s="94"/>
-      <c r="J63" s="141"/>
-      <c r="K63" s="140"/>
+      <c r="J63" s="336"/>
+      <c r="K63" s="335"/>
       <c r="L63" s="94" t="s">
         <v>112</v>
       </c>
@@ -6056,10 +6059,10 @@
         <v>114</v>
       </c>
       <c r="M65" s="95"/>
-      <c r="O65" s="136" t="s">
+      <c r="O65" s="331" t="s">
         <v>115</v>
       </c>
-      <c r="P65" s="136"/>
+      <c r="P65" s="331"/>
       <c r="Q65" s="2" t="s">
         <v>106</v>
       </c>
@@ -6070,7 +6073,7 @@
       <c r="A66" s="1"/>
       <c r="B66" s="68"/>
       <c r="D66" s="93"/>
-      <c r="E66" s="137">
+      <c r="E66" s="332">
         <f>SUM(L34:O34)</f>
         <v>0</v>
       </c>
@@ -6083,13 +6086,13 @@
       </c>
       <c r="H66" s="94"/>
       <c r="J66" s="93"/>
-      <c r="K66" s="139"/>
+      <c r="K66" s="334"/>
       <c r="L66" s="94" t="s">
         <v>116</v>
       </c>
       <c r="M66" s="95"/>
-      <c r="O66" s="136"/>
-      <c r="P66" s="136"/>
+      <c r="O66" s="331"/>
+      <c r="P66" s="331"/>
       <c r="R66" s="89"/>
       <c r="S66" s="1"/>
     </row>
@@ -6097,7 +6100,7 @@
       <c r="A67" s="1"/>
       <c r="B67" s="68"/>
       <c r="D67" s="93"/>
-      <c r="E67" s="138"/>
+      <c r="E67" s="333"/>
       <c r="F67" s="94" t="s">
         <v>117</v>
       </c>
@@ -6107,7 +6110,7 @@
       </c>
       <c r="H67" s="94"/>
       <c r="J67" s="93"/>
-      <c r="K67" s="140"/>
+      <c r="K67" s="335"/>
       <c r="L67" s="94" t="s">
         <v>117</v>
       </c>
@@ -6194,6 +6197,171 @@
     <protectedRange sqref="L31:O34" name="ANFO Information"/>
   </protectedRanges>
   <mergeCells count="189">
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:J52"/>
+    <mergeCell ref="K51:L52"/>
+    <mergeCell ref="M51:O52"/>
+    <mergeCell ref="P51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:J50"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="M49:O50"/>
+    <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="P45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:J48"/>
+    <mergeCell ref="K47:L48"/>
+    <mergeCell ref="M47:O48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:J46"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="M45:O46"/>
+    <mergeCell ref="P47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="M41:O42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="G37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="G38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J27:R27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R32"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="U32:V32"/>
     <mergeCell ref="U33:V33"/>
     <mergeCell ref="U34:V34"/>
@@ -6218,171 +6386,6 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="J15:J24"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J27:R27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R32"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="G37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="G38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:O42"/>
-    <mergeCell ref="P45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:J48"/>
-    <mergeCell ref="K47:L48"/>
-    <mergeCell ref="M47:O48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:J46"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="M45:O46"/>
-    <mergeCell ref="P47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:J50"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="M49:O50"/>
-    <mergeCell ref="P49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:J52"/>
-    <mergeCell ref="K51:L52"/>
-    <mergeCell ref="M51:O52"/>
-    <mergeCell ref="P51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="7">

--- a/gi_template.xlsx
+++ b/gi_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIrst\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707ACB3A-63ED-4D85-8B4D-0BEC830D9332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D25F5C5D-8572-4500-AED5-7026EF632A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="564" xr2:uid="{88F9F152-BEE3-4E7D-BF6D-CFC33E6ACCDE}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>Blaster's Log</t>
   </si>
@@ -4122,8 +4122,8 @@
   </sheetPr>
   <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5825,19 +5825,30 @@
         <v>101</v>
       </c>
       <c r="H55" s="326"/>
-      <c r="I55" s="327"/>
+      <c r="I55" s="327">
+        <f>E6</f>
+        <v>0</v>
+      </c>
       <c r="J55" s="328"/>
-      <c r="K55" s="329"/>
+      <c r="K55" s="329" t="s">
+        <v>129</v>
+      </c>
       <c r="L55" s="329"/>
-      <c r="M55" s="330"/>
+      <c r="M55" s="330">
+        <f>E7</f>
+        <v>0</v>
+      </c>
       <c r="N55" s="329"/>
       <c r="O55" s="329"/>
-      <c r="P55" s="329">
+      <c r="P55" s="329" t="str">
         <f>K55</f>
+        <v>A. Priyashantha</v>
+      </c>
+      <c r="Q55" s="329"/>
+      <c r="R55" s="118">
+        <f>I55</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="329"/>
-      <c r="R55" s="118"/>
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
